--- a/biology/Zoologie/Dryopsophus_spenceri/Dryopsophus_spenceri.xlsx
+++ b/biology/Zoologie/Dryopsophus_spenceri/Dryopsophus_spenceri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus spenceri est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus spenceri est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre entre 200 et 1 100 m d'altitude du Parc national du lac Eildon dans l'État de Victoria au mont Kosciuszko en Nouvelle-Galles du Sud[1]. La zone de répartition de cette espèce est estimée à 5 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre entre 200 et 1 100 m d'altitude du Parc national du lac Eildon dans l'État de Victoria au mont Kosciuszko en Nouvelle-Galles du Sud. La zone de répartition de cette espèce est estimée à 5 km2.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans une petite zone des forêts sclérophyles.
 </t>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryopsophus spenceri est une grenouille arboricole. 
-Les mâles mesurent de 24 à 41 mm et les femelles de 37 à 52 mm[3].
+Les mâles mesurent de 24 à 41 mm et les femelles de 37 à 52 mm.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Dryopsophus spenceri et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est en voie d'extinction. Sa raréfaction est due à la modification de son biotope et à l'introduction d'espèces prédatrices nouvelles comme les Gambusia, la truite arc-en-ciel et la truite fario. On ne connait pas précisément sa population mais on suppose qu'elle est inférieure à 5 000 individus.
 </t>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Walter Baldwin Spencer[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Walter Baldwin Spencer.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dubois, 1984 : Miscellanea nomenclatorica batrachologica (V). Alytes, vol. 3, fasc. 3, p. 111-116.
 Spencer, 1901 : Two new species of frogs from Victoria. Proceedings of the Royal Society of Victoria, vol. 13, p. 176-178 (texte intégral).</t>
